--- a/October'21/05.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/05.10.2021/Bank Statement October-2021.xlsx
@@ -922,9 +922,6 @@
     <t>02.10.2021</t>
   </si>
   <si>
-    <t>Sim+DD(78+156)</t>
-  </si>
-  <si>
     <t>Sim+DD(80+131)</t>
   </si>
   <si>
@@ -973,10 +970,13 @@
     <t>Sim+DD(107+85)</t>
   </si>
   <si>
-    <t>Date:04.10.2021</t>
-  </si>
-  <si>
     <t>05.10.2021</t>
+  </si>
+  <si>
+    <t>Sim+DD(103+181)</t>
+  </si>
+  <si>
+    <t>Date:05.10.2021</t>
   </si>
 </sst>
 </file>
@@ -3341,6 +3341,12 @@
     <xf numFmtId="0" fontId="60" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3357,12 +3363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4128,7 +4128,7 @@
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -4140,48 +4140,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="346" t="s">
@@ -4212,34 +4212,34 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="334" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="334" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="349" t="s">
@@ -4273,16 +4273,16 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
       <c r="K5" s="350"/>
       <c r="L5" s="343"/>
       <c r="M5" s="352"/>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="7" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="204"/>
       <c r="C7" s="205">
@@ -4372,7 +4372,7 @@
     </row>
     <row r="8" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="203" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="207"/>
       <c r="C8" s="208">
@@ -4409,7 +4409,7 @@
     </row>
     <row r="9" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="203" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="207"/>
       <c r="C9" s="208"/>
@@ -4417,7 +4417,7 @@
       <c r="E9" s="208"/>
       <c r="F9" s="208"/>
       <c r="G9" s="315">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="H9" s="208"/>
       <c r="I9" s="208"/>
@@ -4431,7 +4431,7 @@
       <c r="Q9" s="210"/>
       <c r="R9" s="196">
         <f t="shared" si="0"/>
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="78"/>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G37" s="200">
         <f t="shared" si="1"/>
-        <v>7638</v>
+        <v>7648</v>
       </c>
       <c r="H37" s="200">
         <f t="shared" si="1"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="R37" s="202">
         <f>SUM(R6:R36)</f>
-        <v>8838</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -7229,6 +7229,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7245,10 +7249,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="34">
         <v>696000</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="42">
         <v>221000</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="42">
         <v>247000</v>
@@ -9211,8 +9211,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B4" s="374" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C4" s="375"/>
       <c r="D4" s="375"/>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="307" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="305">
         <v>2000000</v>
@@ -9329,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="313">
-        <v>1142066.6875</v>
+        <v>1131651.6875</v>
       </c>
       <c r="G8" s="22"/>
       <c r="K8" s="377" t="s">
@@ -9340,7 +9340,7 @@
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="279" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="292">
         <v>2000000</v>
@@ -9368,7 +9368,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="293">
-        <v>8838</v>
+        <v>8848</v>
       </c>
       <c r="D10" s="366"/>
       <c r="E10" s="288" t="s">
@@ -9390,7 +9390,7 @@
     </row>
     <row r="11" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="279" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="293"/>
       <c r="D11" s="366"/>
@@ -9398,7 +9398,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="300">
-        <v>225115</v>
+        <v>234665</v>
       </c>
       <c r="G11" s="3"/>
       <c r="K11" s="95" t="s">
@@ -9413,18 +9413,18 @@
     </row>
     <row r="12" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="294">
         <f>C10+C11</f>
-        <v>8838</v>
+        <v>8848</v>
       </c>
       <c r="D12" s="366"/>
       <c r="E12" s="289" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="301">
-        <v>228813.19249999989</v>
+        <v>229713.19249999989</v>
       </c>
       <c r="G12" s="3"/>
       <c r="K12" s="101"/>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="13" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="279" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="293">
-        <v>9363.8799999999992</v>
+        <v>9408.8799999999992</v>
       </c>
       <c r="D13" s="366"/>
       <c r="E13" s="289" t="s">
@@ -9452,7 +9452,7 @@
     </row>
     <row r="14" spans="2:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="333" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="295"/>
       <c r="D14" s="366"/>
@@ -9469,11 +9469,11 @@
     </row>
     <row r="15" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="281" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="296">
         <f>C13+C14</f>
-        <v>9363.8799999999992</v>
+        <v>9408.8799999999992</v>
       </c>
       <c r="D15" s="366"/>
       <c r="E15" s="288" t="s">
@@ -9495,11 +9495,11 @@
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="280" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="297">
         <f>C15-C12</f>
-        <v>525.8799999999992</v>
+        <v>560.8799999999992</v>
       </c>
       <c r="D16" s="366"/>
       <c r="E16" s="290" t="s">
@@ -9513,7 +9513,7 @@
     </row>
     <row r="17" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="298">
         <v>0</v>
@@ -9534,11 +9534,11 @@
     </row>
     <row r="18" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="309" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="310">
         <f>C9+C13-C12+C17</f>
-        <v>2000525.88</v>
+        <v>2000560.88</v>
       </c>
       <c r="D18" s="367"/>
       <c r="E18" s="311" t="s">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="F18" s="312">
         <f>F8+F9+F10+F11+F12-F15+F16-F13</f>
-        <v>2000525.88</v>
+        <v>2000560.88</v>
       </c>
       <c r="G18" s="19"/>
       <c r="K18" s="95" t="s">
@@ -9831,10 +9831,10 @@
         <v>193</v>
       </c>
       <c r="L44" s="317" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M44" s="318">
-        <v>44694</v>
+        <v>54244</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -9842,7 +9842,7 @@
         <v>195</v>
       </c>
       <c r="L45" s="317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M45" s="318">
         <v>40301</v>
@@ -9853,7 +9853,7 @@
         <v>197</v>
       </c>
       <c r="L46" s="317" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M46" s="318">
         <v>36672</v>
@@ -9902,7 +9902,7 @@
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="K50" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L50" s="65" t="s">
         <v>184</v>
@@ -9958,7 +9958,7 @@
       <c r="L55" s="362"/>
       <c r="M55" s="259">
         <f>SUM(M10:M54)</f>
-        <v>225115</v>
+        <v>234665</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -10725,7 +10725,7 @@
     </row>
     <row r="5" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="396" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="397"/>
       <c r="C5" s="398"/>
@@ -11231,7 +11231,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="250" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="237"/>
